--- a/template/b2c/template_b2c_december16.xlsx
+++ b/template/b2c/template_b2c_december16.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_GoBack" localSheetId="0">Лист1!$F$244</definedName>
+    <definedName name="_GoBack" localSheetId="0">Лист1!$F$262</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="205">
   <si>
     <t>SV_5</t>
   </si>
@@ -66,15 +66,9 @@
     <t xml:space="preserve">MainHeader=$A2 </t>
   </si>
   <si>
-    <t>groupfile3=template\b2c\$A2.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">MainHeader=$A3 </t>
   </si>
   <si>
-    <t>groupfile3=template\b2c\$A3.xlsx</t>
-  </si>
-  <si>
     <t>MainHeader=$A4</t>
   </si>
   <si>
@@ -619,6 +613,27 @@
   </si>
   <si>
     <t>MainHeader=$E6</t>
+  </si>
+  <si>
+    <t>thirdvar=e4_11nd_kod</t>
+  </si>
+  <si>
+    <t>e4_11nd_kod(0|1|90)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MainHeader=$A1_3 </t>
+  </si>
+  <si>
+    <t>groupfile3=template\b2c\$A1_3.xlsx</t>
+  </si>
+  <si>
+    <t>groupfile3=template\b2c\$A2_new.xlsx</t>
+  </si>
+  <si>
+    <t>groupfile3=template\b2c\$A3_new.xlsx</t>
+  </si>
+  <si>
+    <t>thirdvar=A4</t>
   </si>
 </sst>
 </file>
@@ -963,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G337"/>
+  <dimension ref="A1:G355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="E233" sqref="E233"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -980,10 +995,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1015,7 +1030,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="C6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1126,12 +1141,12 @@
     </row>
     <row r="27" spans="3:5">
       <c r="E27" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="E28" s="1" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="3:5">
@@ -1144,12 +1159,12 @@
     </row>
     <row r="31" spans="3:5">
       <c r="E31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="3:5">
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -1162,13 +1177,16 @@
     </row>
     <row r="35" spans="2:5">
       <c r="E35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="E36" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="2:5">
       <c r="D38" t="s">
@@ -1177,1099 +1195,1083 @@
     </row>
     <row r="39" spans="2:5">
       <c r="E39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="E43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
+      <c r="E51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
-      <c r="B41" t="s">
+    <row r="52" spans="3:5">
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5">
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5">
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5">
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5">
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" t="s">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
+    </row>
+    <row r="68" spans="2:5">
+      <c r="C68" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="E70" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="D43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="E44" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="C45" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="D46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="E47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="D49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="E50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="C51" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="D52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="E53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="C54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="D55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="E56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="C57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="D58" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="E59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" t="s">
+    <row r="72" spans="2:5">
+      <c r="C72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="E74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="C61" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="D62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5">
-      <c r="E63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" t="s">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="C65" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="D66" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="E67" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="C69" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="D70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="E71" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="C73" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="D74" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="E75" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="76" spans="2:5">
       <c r="C76" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="D77" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="2:5">
       <c r="E78" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="C80" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5">
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5">
+      <c r="E82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5">
+      <c r="C83" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5">
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5">
+      <c r="E85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5">
+      <c r="C86" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5">
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5">
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5">
+      <c r="C89" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5">
+      <c r="D90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" ht="61.5" customHeight="1">
+      <c r="E91" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="2:5">
-      <c r="C79" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="D80" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5">
-      <c r="E81" t="s">
+    <row r="92" spans="3:5">
+      <c r="C92" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="82" spans="3:5">
-      <c r="C82" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5">
-      <c r="D83" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="3:5" ht="61.5" customHeight="1">
-      <c r="E84" t="s">
+    <row r="93" spans="3:5">
+      <c r="D93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5">
+      <c r="E94" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="85" spans="3:5">
-      <c r="C85" t="s">
+    <row r="95" spans="3:5">
+      <c r="C95" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="3:5">
-      <c r="D86" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5">
-      <c r="E87" t="s">
+    <row r="96" spans="3:5">
+      <c r="D96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="E97" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="3:5">
-      <c r="C88" t="s">
+    <row r="98" spans="2:5" ht="15.75" customHeight="1">
+      <c r="C98" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="89" spans="3:5">
-      <c r="D89" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5">
-      <c r="E90" t="s">
+    <row r="99" spans="2:5" ht="15.75" customHeight="1">
+      <c r="D99" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" ht="15.75" customHeight="1">
+      <c r="E100" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C91" t="s">
+    <row r="101" spans="2:5" ht="15.75" customHeight="1">
+      <c r="C101" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" ht="15.75" customHeight="1">
+      <c r="D102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" ht="21" customHeight="1">
+      <c r="E103" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="3:5" ht="15.75" customHeight="1">
-      <c r="D92" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" ht="15.75" customHeight="1">
-      <c r="E93" t="s">
+    <row r="104" spans="2:5">
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="E107" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="3:5" ht="15.75" customHeight="1">
-      <c r="C94" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" ht="15.75" customHeight="1">
-      <c r="D95" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5" ht="21" customHeight="1">
-      <c r="E96" t="s">
+    <row r="108" spans="2:5">
+      <c r="E108" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="2:7">
-      <c r="B97" t="s">
+    <row r="109" spans="2:5">
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:7">
-      <c r="C98" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7">
-      <c r="D99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7">
-      <c r="E100" t="s">
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="C111" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="D112" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7">
+      <c r="E113" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="2:7">
-      <c r="E101" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7">
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="2:7">
-      <c r="B103" t="s">
-        <v>0</v>
-      </c>
-      <c r="E103" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7">
-      <c r="C104" t="s">
+    <row r="114" spans="3:7">
+      <c r="C114" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7">
+      <c r="D115" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="3:7">
+      <c r="E116" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="2:7">
-      <c r="D105" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7">
-      <c r="E106" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="107" spans="2:7">
-      <c r="C107" t="s">
+    <row r="117" spans="3:7">
+      <c r="C117" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="2:7">
-      <c r="D108" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7">
-      <c r="E109" t="s">
+    <row r="118" spans="3:7">
+      <c r="D118" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="3:7">
+      <c r="E119" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="110" spans="2:7">
-      <c r="C110" t="s">
+    <row r="120" spans="3:7">
+      <c r="C120" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="111" spans="2:7">
-      <c r="D111" t="s">
-        <v>1</v>
-      </c>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="2:7">
-      <c r="E112" t="s">
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="3:7">
+      <c r="D121" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7">
+      <c r="E122" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="113" spans="3:7">
-      <c r="C113" t="s">
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="3:7">
+      <c r="C123" t="s">
         <v>62</v>
       </c>
-      <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="3:7">
-      <c r="D114" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="3:7">
-      <c r="E115" t="s">
+    </row>
+    <row r="124" spans="3:7">
+      <c r="D124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="3:7">
+      <c r="E125" t="s">
         <v>63</v>
       </c>
-      <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="3:7">
-      <c r="C116" t="s">
+    </row>
+    <row r="126" spans="3:7">
+      <c r="C126" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="117" spans="3:7">
-      <c r="D117" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="3:7">
-      <c r="E118" t="s">
+    <row r="127" spans="3:7">
+      <c r="D127" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7">
+      <c r="E128" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="119" spans="3:7">
-      <c r="C119" t="s">
+    <row r="129" spans="2:7">
+      <c r="C129" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="3:7">
-      <c r="D120" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="3:7">
-      <c r="E121" t="s">
+    <row r="130" spans="2:7">
+      <c r="D130" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="E131" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="3:7">
-      <c r="C122" t="s">
+    <row r="132" spans="2:7">
+      <c r="C132" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="123" spans="3:7">
-      <c r="D123" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="3:7">
-      <c r="E124" t="s">
+    <row r="133" spans="2:7">
+      <c r="D133" t="s">
+        <v>1</v>
+      </c>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="E134" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="125" spans="3:7">
-      <c r="C125" t="s">
+    <row r="135" spans="2:7">
+      <c r="C135" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="126" spans="3:7">
-      <c r="D126" t="s">
-        <v>1</v>
-      </c>
-      <c r="G126" s="2"/>
-    </row>
-    <row r="127" spans="3:7">
-      <c r="E127" t="s">
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="D136" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="E137" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="128" spans="3:7">
-      <c r="C128" t="s">
-        <v>72</v>
-      </c>
-      <c r="G128" s="2"/>
-    </row>
-    <row r="129" spans="2:7">
-      <c r="D129" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7">
-      <c r="E130" t="s">
-        <v>73</v>
-      </c>
-      <c r="G130" s="2"/>
-    </row>
-    <row r="131" spans="2:7">
-      <c r="C131" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7">
-      <c r="D132" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="2:7">
-      <c r="E133" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7">
-      <c r="C134" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7">
-      <c r="D135" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7">
-      <c r="E136" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7">
-      <c r="B137" t="s">
-        <v>0</v>
-      </c>
+      <c r="G137" s="2"/>
     </row>
     <row r="138" spans="2:7">
       <c r="C138" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="139" spans="2:7">
       <c r="D139" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="2:7">
       <c r="E140" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141" spans="2:7">
       <c r="C141" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="142" spans="2:7">
       <c r="D142" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="2:7">
       <c r="E143" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="C145" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="D146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="E147" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="C148" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="D149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="E150" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="C151" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="E153" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7">
-      <c r="C144" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5">
-      <c r="D145" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5">
-      <c r="E146" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5">
-      <c r="C147" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5">
-      <c r="D148" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5">
-      <c r="E149" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5">
-      <c r="C150" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5">
-      <c r="D151" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5">
-      <c r="E152" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5">
-      <c r="B153" t="s">
-        <v>0</v>
-      </c>
-      <c r="E153" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="154" spans="2:5">
       <c r="C154" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="155" spans="2:5">
       <c r="D155" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="2:5">
       <c r="E156" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="157" spans="2:5">
       <c r="C157" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="158" spans="2:5">
       <c r="D158" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="2:5">
       <c r="E159" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5">
+      <c r="C161" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5">
+      <c r="D162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5">
+      <c r="E163" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5">
+      <c r="C164" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5">
+      <c r="D165" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5">
+      <c r="E166" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="167" spans="3:5">
+      <c r="C167" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="168" spans="3:5">
+      <c r="D168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="3:5">
+      <c r="E169" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="160" spans="2:5">
-      <c r="C160" t="s">
+    <row r="170" spans="3:5">
+      <c r="C170" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="171" spans="3:5">
+      <c r="D171" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="3:5">
+      <c r="E172" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="161" spans="3:7">
-      <c r="D161" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="3:7">
-      <c r="E162" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="163" spans="3:7">
-      <c r="C163" t="s">
+    <row r="173" spans="3:5">
+      <c r="C173" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="174" spans="3:5">
+      <c r="D174" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="3:5">
+      <c r="E175" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="164" spans="3:7">
-      <c r="D164" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="3:7">
-      <c r="E165" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="166" spans="3:7">
-      <c r="C166" t="s">
+    <row r="176" spans="3:5">
+      <c r="C176" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="167" spans="3:7">
-      <c r="D167" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="3:7">
-      <c r="E168" t="s">
+    <row r="177" spans="3:7">
+      <c r="D177" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="3:7">
+      <c r="E178" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="169" spans="3:7">
-      <c r="C169" t="s">
+    <row r="179" spans="3:7">
+      <c r="C179" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="170" spans="3:7">
-      <c r="D170" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="3:7">
-      <c r="E171" t="s">
+    <row r="180" spans="3:7">
+      <c r="D180" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="3:7">
+      <c r="E181" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="172" spans="3:7">
-      <c r="C172" t="s">
+      <c r="G181" s="2"/>
+    </row>
+    <row r="182" spans="3:7">
+      <c r="C182" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="173" spans="3:7">
-      <c r="D173" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="3:7">
-      <c r="E174" t="s">
+    <row r="183" spans="3:7">
+      <c r="D183" t="s">
+        <v>1</v>
+      </c>
+      <c r="G183" s="2"/>
+    </row>
+    <row r="184" spans="3:7">
+      <c r="E184" t="s">
         <v>102</v>
       </c>
-      <c r="G174" s="2"/>
-    </row>
-    <row r="175" spans="3:7">
-      <c r="C175" t="s">
+    </row>
+    <row r="185" spans="3:7">
+      <c r="C185" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="176" spans="3:7">
-      <c r="D176" t="s">
-        <v>1</v>
-      </c>
-      <c r="G176" s="2"/>
-    </row>
-    <row r="177" spans="3:7">
-      <c r="E177" t="s">
+      <c r="G185" s="2"/>
+    </row>
+    <row r="186" spans="3:7">
+      <c r="D186" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="3:7">
+      <c r="E187" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="178" spans="3:7">
-      <c r="C178" t="s">
+      <c r="G187" s="2"/>
+    </row>
+    <row r="188" spans="3:7">
+      <c r="C188" t="s">
         <v>105</v>
       </c>
-      <c r="G178" s="2"/>
-    </row>
-    <row r="179" spans="3:7">
-      <c r="D179" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="3:7">
-      <c r="E180" t="s">
+    </row>
+    <row r="189" spans="3:7">
+      <c r="D189" t="s">
+        <v>1</v>
+      </c>
+      <c r="G189" s="2"/>
+    </row>
+    <row r="190" spans="3:7">
+      <c r="E190" t="s">
         <v>106</v>
       </c>
-      <c r="G180" s="2"/>
-    </row>
-    <row r="181" spans="3:7">
-      <c r="C181" t="s">
+    </row>
+    <row r="191" spans="3:7">
+      <c r="C191" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="182" spans="3:7">
-      <c r="D182" t="s">
-        <v>1</v>
-      </c>
-      <c r="G182" s="2"/>
-    </row>
-    <row r="183" spans="3:7">
-      <c r="E183" t="s">
+    <row r="192" spans="3:7">
+      <c r="D192" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="3:5">
+      <c r="E193" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="184" spans="3:7">
-      <c r="C184" t="s">
+    <row r="194" spans="3:5">
+      <c r="C194" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="185" spans="3:7">
-      <c r="D185" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="3:7">
-      <c r="E186" t="s">
+    <row r="195" spans="3:5">
+      <c r="D195" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="3:5">
+      <c r="E196" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="3:7">
-      <c r="C187" t="s">
+    <row r="197" spans="3:5">
+      <c r="C197" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="188" spans="3:7">
-      <c r="D188" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="3:7">
-      <c r="E189" t="s">
+    <row r="198" spans="3:5">
+      <c r="D198" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="3:5">
+      <c r="E199" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="190" spans="3:7">
-      <c r="C190" t="s">
+    <row r="200" spans="3:5">
+      <c r="C200" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="191" spans="3:7">
-      <c r="D191" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="3:7">
-      <c r="E192" t="s">
+    <row r="201" spans="3:5">
+      <c r="D201" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="3:5">
+      <c r="E202" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="193" spans="3:5">
-      <c r="C193" t="s">
+    <row r="203" spans="3:5">
+      <c r="C203" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="194" spans="3:5">
-      <c r="D194" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="3:5">
-      <c r="E195" t="s">
+    <row r="204" spans="3:5">
+      <c r="D204" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="3:5">
+      <c r="E205" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="196" spans="3:5">
-      <c r="C196" t="s">
+    <row r="206" spans="3:5">
+      <c r="C206" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="197" spans="3:5">
-      <c r="D197" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="3:5">
-      <c r="E198" t="s">
+    <row r="207" spans="3:5">
+      <c r="D207" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="3:5">
+      <c r="E208" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="199" spans="3:5">
-      <c r="C199" t="s">
+    <row r="209" spans="1:5">
+      <c r="C209" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="200" spans="3:5">
-      <c r="D200" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="3:5">
-      <c r="E201" t="s">
+    <row r="210" spans="1:5">
+      <c r="D210" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="E211" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="202" spans="3:5">
-      <c r="C202" t="s">
+    <row r="212" spans="1:5">
+      <c r="C212" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="203" spans="3:5">
-      <c r="D203" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="3:5">
-      <c r="E204" t="s">
+    <row r="213" spans="1:5">
+      <c r="D213" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="E214" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="205" spans="3:5">
-      <c r="C205" t="s">
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B219" t="s">
+        <v>0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>4</v>
+      </c>
+      <c r="C220" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="206" spans="3:5">
-      <c r="D206" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="3:5">
-      <c r="E207" t="s">
+    <row r="221" spans="1:5">
+      <c r="D221" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="E222" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="208" spans="3:5">
-      <c r="C208" t="s">
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B223" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>4</v>
+      </c>
+      <c r="C224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="3:5">
+      <c r="D225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="3:5">
+      <c r="E226" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="227" spans="3:5">
+      <c r="E227" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="228" spans="3:5">
+      <c r="C228" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="209" spans="2:5">
-      <c r="D209" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="2:5">
-      <c r="E210" t="s">
+    <row r="229" spans="3:5">
+      <c r="D229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="3:5">
+      <c r="E230" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="211" spans="2:5">
-      <c r="B211" t="s">
+    <row r="231" spans="3:5">
+      <c r="C231" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="3:5">
+      <c r="D232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="3:5">
+      <c r="E233" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="234" spans="3:5">
+      <c r="E234" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="235" spans="3:5">
+      <c r="C235" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="236" spans="3:5">
+      <c r="D236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="3:5">
+      <c r="E237" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="238" spans="3:5">
+      <c r="C238" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="3:5">
+      <c r="D239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="3:5">
+      <c r="E240" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="E241" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B242" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:5">
-      <c r="C212" t="s">
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="D244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="E245" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="C248" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="2:5">
-      <c r="D213" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="214" spans="2:5">
-      <c r="E214" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="215" spans="2:5">
-      <c r="E215" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="216" spans="2:5">
-      <c r="C216" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="217" spans="2:5">
-      <c r="D217" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="2:5">
-      <c r="E218" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="219" spans="2:5">
-      <c r="C219" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="2:5">
-      <c r="D220" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="2:5">
-      <c r="E221" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="222" spans="2:5">
-      <c r="E222" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="223" spans="2:5">
-      <c r="C223" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="224" spans="2:5">
-      <c r="D224" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225" spans="2:5">
-      <c r="E225" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="226" spans="2:5">
-      <c r="C226" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="2:5">
-      <c r="D227" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228" spans="2:5">
-      <c r="E228" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="229" spans="2:5">
-      <c r="E229" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="230" spans="2:5">
-      <c r="C230" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="2:5">
-      <c r="D231" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="232" spans="2:5">
-      <c r="E232" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="233" spans="2:5">
-      <c r="E233" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="240" spans="2:5">
-      <c r="B240" t="s">
+    <row r="249" spans="1:5">
+      <c r="D249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="E250" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="E251" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5">
+      <c r="B258" t="s">
         <v>0</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E258" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="241" spans="3:5">
-      <c r="C241" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="242" spans="3:5">
-      <c r="D242" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="3:5">
-      <c r="E243" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="244" spans="3:5">
-      <c r="C244" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="245" spans="3:5">
-      <c r="D245" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="3:5">
-      <c r="E246" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="247" spans="3:5">
-      <c r="C247" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="248" spans="3:5">
-      <c r="D248" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="3:5">
-      <c r="E249" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="250" spans="3:5">
-      <c r="C250" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="251" spans="3:5">
-      <c r="D251" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="3:5">
-      <c r="E252" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="253" spans="3:5">
-      <c r="C253" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="254" spans="3:5">
-      <c r="D254" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="3:5">
-      <c r="E255" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="256" spans="3:5">
-      <c r="C256" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="257" spans="2:5">
-      <c r="D257" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="2:5">
-      <c r="E258" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="259" spans="2:5">
       <c r="C259" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
     </row>
     <row r="260" spans="2:5">
@@ -2279,288 +2281,285 @@
     </row>
     <row r="261" spans="2:5">
       <c r="E261" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5">
+      <c r="C262" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="D263" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="E264" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="265" spans="2:5">
+      <c r="C265" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5">
+      <c r="D266" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="2:5">
+      <c r="E267" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="268" spans="2:5">
+      <c r="C268" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="269" spans="2:5">
+      <c r="D269" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="2:5">
+      <c r="E270" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="271" spans="2:5">
+      <c r="C271" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="272" spans="2:5">
+      <c r="D272" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="2:5">
+      <c r="E273" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5">
+      <c r="C274" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5">
+      <c r="D275" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5">
+      <c r="E276" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5">
+      <c r="C277" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5">
+      <c r="D278" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5">
+      <c r="E279" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5">
+      <c r="B280" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5">
+      <c r="C281" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5">
+      <c r="D282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5">
+      <c r="E283" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="262" spans="2:5">
-      <c r="B262" t="s">
+    <row r="284" spans="2:5">
+      <c r="C284" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5">
+      <c r="D285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5">
+      <c r="E286" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5">
+      <c r="B287" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="2:5">
-      <c r="C263" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="264" spans="2:5">
-      <c r="D264" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="265" spans="2:5">
-      <c r="E265" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="266" spans="2:5">
-      <c r="C266" t="s">
+      <c r="E287" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5">
+      <c r="C288" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="267" spans="2:5">
-      <c r="D267" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="268" spans="2:5">
-      <c r="E268" t="s">
+    <row r="289" spans="3:5">
+      <c r="D289" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="3:5">
+      <c r="E290" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="269" spans="2:5">
-      <c r="B269" t="s">
+    <row r="291" spans="3:5">
+      <c r="C291" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="292" spans="3:5">
+      <c r="D292" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="3:5">
+      <c r="E293" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="294" spans="3:5">
+      <c r="C294" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="295" spans="3:5">
+      <c r="D295" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="3:5">
+      <c r="E296" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="297" spans="3:5">
+      <c r="C297" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="298" spans="3:5">
+      <c r="D298" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="3:5">
+      <c r="E299" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="300" spans="3:5">
+      <c r="C300" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="301" spans="3:5">
+      <c r="D301" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="3:5">
+      <c r="E302" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="303" spans="3:5">
+      <c r="C303" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="304" spans="3:5">
+      <c r="D304" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5">
+      <c r="E305" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5">
+      <c r="C306" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5">
+      <c r="D307" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5">
+      <c r="E308" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5">
+      <c r="B309" t="s">
         <v>0</v>
       </c>
-      <c r="E269" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="270" spans="2:5">
-      <c r="C270" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="271" spans="2:5">
-      <c r="D271" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="2:5">
-      <c r="E272" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="273" spans="3:5">
-      <c r="C273" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="274" spans="3:5">
-      <c r="D274" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="3:5">
-      <c r="E275" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="276" spans="3:5">
-      <c r="C276" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="277" spans="3:5">
-      <c r="D277" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="3:5">
-      <c r="E278" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="279" spans="3:5">
-      <c r="C279" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="280" spans="3:5">
-      <c r="D280" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="3:5">
-      <c r="E281" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="282" spans="3:5">
-      <c r="C282" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="283" spans="3:5">
-      <c r="D283" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="3:5">
-      <c r="E284" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="285" spans="3:5">
-      <c r="C285" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="286" spans="3:5">
-      <c r="D286" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="3:5">
-      <c r="E287" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="288" spans="3:5">
-      <c r="C288" t="s">
+    </row>
+    <row r="310" spans="2:5">
+      <c r="C310" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="289" spans="2:5">
-      <c r="D289" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="2:5">
-      <c r="E290" t="s">
+    <row r="311" spans="2:5">
+      <c r="D311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="2:5">
+      <c r="E312" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="291" spans="2:5">
-      <c r="B291" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="2:5">
-      <c r="C292" t="s">
+    <row r="313" spans="2:5">
+      <c r="C313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5">
+      <c r="D314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5">
+      <c r="E315" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="293" spans="2:5">
-      <c r="D293" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="294" spans="2:5">
-      <c r="E294" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="295" spans="2:5">
-      <c r="C295" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="296" spans="2:5">
-      <c r="D296" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="297" spans="2:5">
-      <c r="E297" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="298" spans="2:5">
-      <c r="E298" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="299" spans="2:5">
-      <c r="B299" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="2:5">
-      <c r="C300" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="2:5">
-      <c r="D301" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="302" spans="2:5">
-      <c r="E302" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="303" spans="2:5">
-      <c r="E303" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="304" spans="2:5">
-      <c r="B304" t="s">
-        <v>0</v>
-      </c>
-      <c r="E304" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="305" spans="2:5">
-      <c r="C305" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="306" spans="2:5">
-      <c r="D306" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="2:5">
-      <c r="E307" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="308" spans="2:5">
-      <c r="C308" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="309" spans="2:5">
-      <c r="D309" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="2:5">
-      <c r="E310" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="311" spans="2:5">
-      <c r="C311" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="312" spans="2:5">
-      <c r="D312" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="2:5">
-      <c r="E313" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="314" spans="2:5">
-      <c r="C314" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="315" spans="2:5">
-      <c r="D315" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="316" spans="2:5">
       <c r="E316" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="317" spans="2:5">
@@ -2580,12 +2579,12 @@
     </row>
     <row r="320" spans="2:5">
       <c r="E320" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
     </row>
     <row r="321" spans="2:5">
       <c r="E321" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="322" spans="2:5">
@@ -2598,7 +2597,7 @@
     </row>
     <row r="323" spans="2:5">
       <c r="C323" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="324" spans="2:5">
@@ -2608,12 +2607,12 @@
     </row>
     <row r="325" spans="2:5">
       <c r="E325" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="326" spans="2:5">
       <c r="C326" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="327" spans="2:5">
@@ -2623,12 +2622,12 @@
     </row>
     <row r="328" spans="2:5">
       <c r="E328" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="329" spans="2:5">
       <c r="C329" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="330" spans="2:5">
@@ -2638,12 +2637,12 @@
     </row>
     <row r="331" spans="2:5">
       <c r="E331" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="332" spans="2:5">
       <c r="C332" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="333" spans="2:5">
@@ -2653,22 +2652,115 @@
     </row>
     <row r="334" spans="2:5">
       <c r="E334" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="335" spans="2:5">
+      <c r="B335" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="2:5">
+      <c r="C336" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="2:5">
+      <c r="D337" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="2:5">
+      <c r="E338" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="339" spans="2:5">
+      <c r="E339" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="340" spans="2:5">
+      <c r="B340" t="s">
+        <v>0</v>
+      </c>
+      <c r="E340" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="2:5">
+      <c r="C341" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="342" spans="2:5">
+      <c r="D342" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="2:5">
+      <c r="E343" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="344" spans="2:5">
+      <c r="C344" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="345" spans="2:5">
+      <c r="D345" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="2:5">
+      <c r="E346" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="347" spans="2:5">
+      <c r="C347" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="348" spans="2:5">
+      <c r="D348" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="2:5">
+      <c r="E349" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="350" spans="2:5">
+      <c r="C350" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="351" spans="2:5">
+      <c r="D351" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="2:5">
+      <c r="E352" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="353" spans="3:5">
+      <c r="C353" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="354" spans="3:5">
+      <c r="D354" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="3:5">
+      <c r="E355" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="335" spans="2:5">
-      <c r="C335" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="336" spans="2:5">
-      <c r="D336" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="5:5">
-      <c r="E337" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
